--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_16_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1621089.200857974</v>
+        <v>1615402.929799864</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12418707.03391897</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1064951.254229018</v>
+        <v>417425.6313448948</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10197314.52125366</v>
+        <v>10440911.27177258</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>79.33148436861121</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,16 +670,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>369.0375621883596</v>
+        <v>19.98946990210331</v>
       </c>
       <c r="G2" t="n">
-        <v>369.0375621883596</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>101.2548100513327</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>144.461990355563</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -724,10 +724,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y2" t="n">
-        <v>369.0375621883596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,28 +737,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>22.70996963266909</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>97.5958696172567</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>37.20741361388914</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,22 +785,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>6.044383512335187</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
-        <v>143.5275859483063</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>194.0549334745303</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.841657458228</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>83.6328595858328</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>3.513071420660779</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>120.153253327732</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>201.869884603739</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>222.5157744498675</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2497125695324</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>42.61148161692171</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>140.5107340765795</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>212.5689651179052</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>263.3602599498886</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>411.8707348436268</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>263.7138800015063</v>
       </c>
     </row>
     <row r="6">
@@ -977,10 +977,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>152.1209965297025</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
@@ -989,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>26.17372043046386</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,25 +1022,25 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.1845637256568</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>134.1127932166741</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1074,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>109.1541654470835</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1107,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>68.36004337105383</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>281.2656442905253</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247013</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>117.227810099262</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.8315678926962</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923704996</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>134.3646350838587</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
         <v>192.0665623188214</v>
@@ -1293,22 +1293,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>50.98074812542835</v>
       </c>
       <c r="H10" t="n">
-        <v>39.8494685094108</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195734</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617374</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8053789271548</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>283.1749784766143</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>109.1877617881758</v>
+        <v>83.74901076264499</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>196.461766006733</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9058642207981</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1438,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>358.0072011553115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4021710092738</v>
       </c>
       <c r="H12" t="n">
-        <v>89.59687541851115</v>
+        <v>83.82823269715946</v>
       </c>
       <c r="I12" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0489563585644</v>
       </c>
       <c r="T12" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3090395918921</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478724655842</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>140.0343446060123</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>140.3028503125647</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,19 +1581,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4093609706218</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1845243123506</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>203.1977700471494</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1609,25 +1609,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>69.5880335225059</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1700,13 +1700,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>134.9994691657081</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>128.1435076414547</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
-        <v>190.7165703189231</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U15" t="n">
-        <v>225.7871683969286</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.86209348694693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.32106446352842</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1937,10 +1937,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,13 +1973,13 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T18" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U18" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>33.26025621763382</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2089,16 +2089,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.32106446352842</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2174,10 +2174,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>134.4224477376697</v>
+        <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T21" t="n">
-        <v>188.3907690366107</v>
+        <v>188.3046392154443</v>
       </c>
       <c r="U21" t="n">
-        <v>225.7492064608734</v>
+        <v>225.7478006422472</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2253,13 +2253,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.338488358459</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>60.11729550773637</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>132.5342760058854</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016476</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>262.35338800267</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>41.0117587705994</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2563,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>6.434538210426389</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899569</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>23.6255456814082</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229358</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>11.77415159213958</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3189,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3198,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>74.53917159609216</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>135.5334195528338</v>
       </c>
     </row>
     <row r="35">
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3438,7 +3438,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>132.6315337216688</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3486,7 +3486,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>36.2249434387023</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3565,7 +3565,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3669,16 +3669,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>18.70843787977262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3754,7 +3754,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H41" t="n">
         <v>283.1540821444137</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695439</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>123.9815576456779</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>137.9792024346624</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4036,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4140,7 +4140,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>23.10998325717174</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,13 +4191,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>245.8796921214428</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>877.3310195488586</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="C2" t="n">
-        <v>877.3310195488586</v>
+        <v>307.6661507067969</v>
       </c>
       <c r="D2" t="n">
-        <v>877.3310195488586</v>
+        <v>307.6661507067969</v>
       </c>
       <c r="E2" t="n">
-        <v>877.3310195488586</v>
+        <v>307.6661507067969</v>
       </c>
       <c r="F2" t="n">
-        <v>504.5658052171822</v>
+        <v>287.4747669672986</v>
       </c>
       <c r="G2" t="n">
-        <v>131.8005908855059</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H2" t="n">
-        <v>131.8005908855059</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I2" t="n">
-        <v>29.52300497506877</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J2" t="n">
-        <v>88.33444547649356</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>227.2160677408881</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L2" t="n">
-        <v>436.4127627709107</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>700.8538313237394</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N2" t="n">
-        <v>974.1876412092112</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O2" t="n">
-        <v>1218.953745802294</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P2" t="n">
-        <v>1393.354952349566</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>1476.150248753438</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>1476.150248753438</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1330.229046374082</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>1330.229046374082</v>
+        <v>840.421463841153</v>
       </c>
       <c r="U2" t="n">
-        <v>1330.229046374082</v>
+        <v>840.421463841153</v>
       </c>
       <c r="V2" t="n">
-        <v>1330.229046374082</v>
+        <v>840.421463841153</v>
       </c>
       <c r="W2" t="n">
-        <v>1330.229046374082</v>
+        <v>840.421463841153</v>
       </c>
       <c r="X2" t="n">
-        <v>1330.229046374082</v>
+        <v>574.0438072739749</v>
       </c>
       <c r="Y2" t="n">
-        <v>957.4638320424053</v>
+        <v>574.0438072739749</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.6879375317818</v>
+        <v>452.6925002222604</v>
       </c>
       <c r="C3" t="n">
-        <v>165.6879375317818</v>
+        <v>452.6925002222604</v>
       </c>
       <c r="D3" t="n">
-        <v>165.6879375317818</v>
+        <v>303.7580905610092</v>
       </c>
       <c r="E3" t="n">
-        <v>165.6879375317818</v>
+        <v>144.5206355555537</v>
       </c>
       <c r="F3" t="n">
-        <v>165.6879375317818</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G3" t="n">
-        <v>165.6879375317818</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>67.10625104970427</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I3" t="n">
-        <v>29.52300497506877</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J3" t="n">
-        <v>170.5629740690277</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K3" t="n">
-        <v>364.9248352653891</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L3" t="n">
-        <v>553.5892509228275</v>
+        <v>242.5255548298714</v>
       </c>
       <c r="M3" t="n">
-        <v>793.1085934417306</v>
+        <v>433.1262439263952</v>
       </c>
       <c r="N3" t="n">
-        <v>1053.375945160809</v>
+        <v>643.1802110290002</v>
       </c>
       <c r="O3" t="n">
-        <v>1269.249929430655</v>
+        <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>1423.174767350566</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q3" t="n">
-        <v>1476.150248753438</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1470.044810862191</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>1325.067451318447</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>1129.052367000739</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>900.9294806792968</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>665.7773724475542</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W3" t="n">
-        <v>581.2997365022685</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X3" t="n">
-        <v>373.4482362967357</v>
+        <v>828.6681360072823</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.6879375317818</v>
+        <v>620.9078372423285</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>330.0781488758813</v>
+        <v>503.2874698569806</v>
       </c>
       <c r="C4" t="n">
-        <v>330.0781488758813</v>
+        <v>334.3512869290737</v>
       </c>
       <c r="D4" t="n">
-        <v>179.9615094635456</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E4" t="n">
-        <v>179.9615094635456</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F4" t="n">
-        <v>33.07156196563521</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>33.07156196563521</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>33.07156196563521</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>33.07156196563521</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>29.52300497506877</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K4" t="n">
-        <v>153.6445167267842</v>
+        <v>126.4133765287949</v>
       </c>
       <c r="L4" t="n">
-        <v>368.0037528311199</v>
+        <v>316.7083726551011</v>
       </c>
       <c r="M4" t="n">
-        <v>604.4046350149688</v>
+        <v>527.7368878375338</v>
       </c>
       <c r="N4" t="n">
-        <v>840.6190490242911</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O4" t="n">
-        <v>1042.784997258205</v>
+        <v>918.4699372075546</v>
       </c>
       <c r="P4" t="n">
-        <v>1192.252208990219</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1212.300478742339</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>1090.933556189074</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S4" t="n">
-        <v>887.0245818418628</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>662.2611733066431</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U4" t="n">
-        <v>373.1200494990346</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V4" t="n">
-        <v>373.1200494990346</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>330.0781488758813</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X4" t="n">
-        <v>330.0781488758813</v>
+        <v>826.8659691080077</v>
       </c>
       <c r="Y4" t="n">
-        <v>330.0781488758813</v>
+        <v>684.9359346872203</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>725.4207064305331</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="C5" t="n">
-        <v>725.4207064305331</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="D5" t="n">
-        <v>725.4207064305331</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="E5" t="n">
-        <v>725.4207064305331</v>
+        <v>41.00642392276843</v>
       </c>
       <c r="F5" t="n">
-        <v>459.4002418346859</v>
+        <v>34.06092317356496</v>
       </c>
       <c r="G5" t="n">
-        <v>43.36919653809315</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H5" t="n">
-        <v>43.36919653809315</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I5" t="n">
-        <v>43.36919653809315</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>152.5078184301905</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8168396232728</v>
+        <v>142.2640879052542</v>
       </c>
       <c r="L5" t="n">
-        <v>669.5878927711882</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>1038.148464578732</v>
+        <v>495.5981834030605</v>
       </c>
       <c r="N5" t="n">
-        <v>1417.286540135169</v>
+        <v>704.5463761991319</v>
       </c>
       <c r="O5" t="n">
-        <v>1761.960612545599</v>
+        <v>888.5149683358417</v>
       </c>
       <c r="P5" t="n">
-        <v>2021.630958172451</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>2168.459826904657</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>2168.459826904657</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>2036.325171642788</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T5" t="n">
-        <v>2036.325171642788</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U5" t="n">
-        <v>1782.718007305298</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V5" t="n">
-        <v>1451.655119961727</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W5" t="n">
-        <v>1098.886464691613</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>725.4207064305331</v>
+        <v>788.477863438847</v>
       </c>
       <c r="Y5" t="n">
-        <v>725.4207064305331</v>
+        <v>522.1002068716689</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>761.5682439298523</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>607.9106716776275</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9106716776275</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6732166721721</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>302.138658699057</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G6" t="n">
-        <v>165.2626649141729</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H6" t="n">
-        <v>69.80729798300614</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="I6" t="n">
-        <v>43.36919653809315</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="J6" t="n">
-        <v>89.55356510562345</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K6" t="n">
-        <v>319.8851896233162</v>
+        <v>95.78113116957469</v>
       </c>
       <c r="L6" t="n">
-        <v>577.4363251833042</v>
+        <v>338.8740072302313</v>
       </c>
       <c r="M6" t="n">
-        <v>897.343220651814</v>
+        <v>529.4746963267552</v>
       </c>
       <c r="N6" t="n">
-        <v>1240.125744646446</v>
+        <v>739.5286634293602</v>
       </c>
       <c r="O6" t="n">
-        <v>1531.484990901013</v>
+        <v>909.46721075609</v>
       </c>
       <c r="P6" t="n">
-        <v>2061.271547415452</v>
+        <v>1026.524810789494</v>
       </c>
       <c r="Q6" t="n">
-        <v>2154.745546059892</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>2168.459826904657</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>2029.495166406375</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1834.784844880351</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1834.784844880351</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>1599.632736648609</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>1345.395379920407</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>1137.543879714874</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>929.7835809499204</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>617.3651533211353</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C7" t="n">
-        <v>448.4289703932284</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D7" t="n">
-        <v>448.4289703932284</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="E7" t="n">
-        <v>300.5158768108353</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="F7" t="n">
-        <v>153.6259293129249</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G7" t="n">
-        <v>153.6259293129249</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H7" t="n">
-        <v>153.6259293129249</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I7" t="n">
-        <v>43.36919653809315</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J7" t="n">
-        <v>58.69630920174252</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>213.7203003246709</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>467.624070672889</v>
+        <v>316.708372655101</v>
       </c>
       <c r="M7" t="n">
-        <v>745.7191196640795</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>1022.63630638511</v>
+        <v>739.1822330227047</v>
       </c>
       <c r="O7" t="n">
-        <v>1262.397853152954</v>
+        <v>918.4699372075544</v>
       </c>
       <c r="P7" t="n">
-        <v>1444.034594271088</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q7" t="n">
-        <v>1486.355378693649</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1486.355378693649</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>1486.355378693649</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T7" t="n">
-        <v>1262.751521386272</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U7" t="n">
-        <v>973.6252003602958</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V7" t="n">
-        <v>973.6252003602958</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W7" t="n">
-        <v>973.6252003602958</v>
+        <v>985.8049711463747</v>
       </c>
       <c r="X7" t="n">
-        <v>973.6252003602958</v>
+        <v>757.8154202483573</v>
       </c>
       <c r="Y7" t="n">
-        <v>752.8326212167657</v>
+        <v>537.0228411048272</v>
       </c>
     </row>
     <row r="8">
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2057.327558942839</v>
+        <v>1101.768613746537</v>
       </c>
       <c r="C8" t="n">
-        <v>1688.365042002428</v>
+        <v>732.8060968061254</v>
       </c>
       <c r="D8" t="n">
-        <v>1330.099343395677</v>
+        <v>732.8060968061254</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974331</v>
+        <v>347.0178442078812</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078256</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321143</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362826</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816102</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872947</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923566</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1656.671415230823</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2055.228484740848</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
         <v>2542.25058172385</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2443.927399006961</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2443.927399006961</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2443.927399006961</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2443.927399006961</v>
+        <v>2231.276441056585</v>
       </c>
       <c r="W8" t="n">
-        <v>2443.927399006961</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="X8" t="n">
-        <v>2443.927399006961</v>
+        <v>1878.507785786471</v>
       </c>
       <c r="Y8" t="n">
-        <v>2443.927399006961</v>
+        <v>1488.368453810659</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756897</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182518</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057882</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500118</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310627</v>
+        <v>614.543024838023</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625354</v>
+        <v>909.2465818694948</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781436</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560475</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736638</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568935</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,10 +4922,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>388.5053618715934</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>388.5053618715934</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>238.3887224592577</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>238.3887224592577</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>91.49877496134735</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>91.49877496134735</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4962,52 +4962,52 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312227</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020483</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693248</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096608</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1123.088724245826</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999038</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171028</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074502</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1533.862713590084</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1337.233965749945</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1114.255484944681</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1114.255484944681</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>859.5709967387937</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>570.1538267018332</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>570.1538267018332</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>570.1538267018332</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1590.416669135309</v>
+        <v>2317.747847446864</v>
       </c>
       <c r="C11" t="n">
-        <v>1590.416669135309</v>
+        <v>1948.785330506452</v>
       </c>
       <c r="D11" t="n">
-        <v>1232.150970528558</v>
+        <v>1590.519631899702</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>1204.731379301458</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>793.74547451185</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>379.8006473127038</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>93.76531551814389</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218345</v>
+        <v>95.21173263692003</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>377.8919112275249</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810559</v>
+        <v>852.294739903931</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1477.735160302613</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.776739001389</v>
+        <v>2205.327574907686</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2949.307003834352</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>3638.490420549538</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>4192.19152103512</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.58875505237</v>
+        <v>4559.825241454992</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>4688.265775907194</v>
       </c>
       <c r="S11" t="n">
-        <v>3215.315153136267</v>
+        <v>4603.670815540886</v>
       </c>
       <c r="T11" t="n">
-        <v>3009.337405520489</v>
+        <v>4405.224587251257</v>
       </c>
       <c r="U11" t="n">
-        <v>3009.337405520489</v>
+        <v>4151.784320361562</v>
       </c>
       <c r="V11" t="n">
-        <v>2678.274518176919</v>
+        <v>3820.721433017992</v>
       </c>
       <c r="W11" t="n">
-        <v>2325.505862906804</v>
+        <v>3467.952777747877</v>
       </c>
       <c r="X11" t="n">
-        <v>1952.040104645725</v>
+        <v>3094.487019486798</v>
       </c>
       <c r="Y11" t="n">
-        <v>1590.416669135309</v>
+        <v>2704.347687510986</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811095</v>
+        <v>943.3595186577121</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999825</v>
+        <v>768.9064893765851</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387314</v>
+        <v>619.9720797153338</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332758</v>
+        <v>460.7346247098784</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601609</v>
+        <v>314.2000667367634</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927789</v>
+        <v>178.4402980405272</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064586</v>
+        <v>93.76531551814389</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218345</v>
+        <v>95.49549105200286</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>245.0400219104813</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031485</v>
+        <v>578.7902689749724</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158141</v>
+        <v>1073.881204646997</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1374.077246645175</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>2001.394112763707</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125858</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619338</v>
+        <v>2434.815424716773</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2244.604273613852</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431609</v>
+        <v>2016.576119608211</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1781.424011376468</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1527.186654648267</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.335154442734</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501178</v>
+        <v>1111.57485567778</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1091.613680441807</v>
+        <v>990.7900626948284</v>
       </c>
       <c r="C13" t="n">
-        <v>922.6774975139006</v>
+        <v>821.8538797669215</v>
       </c>
       <c r="D13" t="n">
-        <v>772.5608581015648</v>
+        <v>671.7372403545858</v>
       </c>
       <c r="E13" t="n">
-        <v>624.6477645191717</v>
+        <v>523.8241467721926</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>376.9341992742823</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>235.4853663389163</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>93.76531551814389</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218345</v>
+        <v>93.76531551814389</v>
       </c>
       <c r="J13" t="n">
-        <v>111.634748879119</v>
+        <v>173.9372723687388</v>
       </c>
       <c r="K13" t="n">
-        <v>315.6219318279954</v>
+        <v>435.521262039843</v>
       </c>
       <c r="L13" t="n">
-        <v>632.1817302764914</v>
+        <v>825.7851432062823</v>
       </c>
       <c r="M13" t="n">
-        <v>976.3387758760405</v>
+        <v>1247.652809956956</v>
       </c>
       <c r="N13" t="n">
-        <v>1317.747152581905</v>
+        <v>1664.924022934751</v>
       </c>
       <c r="O13" t="n">
-        <v>1617.076751502319</v>
+        <v>2034.325229908153</v>
       </c>
       <c r="P13" t="n">
-        <v>1849.684251935978</v>
+        <v>2326.891096275499</v>
       </c>
       <c r="Q13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.013457116468</v>
       </c>
       <c r="R13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.013457116468</v>
       </c>
       <c r="S13" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.013457116468</v>
       </c>
       <c r="T13" t="n">
-        <v>1927.294548088493</v>
+        <v>2226.408041994628</v>
       </c>
       <c r="U13" t="n">
-        <v>1927.294548088493</v>
+        <v>1937.332764911446</v>
       </c>
       <c r="V13" t="n">
-        <v>1927.294548088493</v>
+        <v>1682.648276705559</v>
       </c>
       <c r="W13" t="n">
-        <v>1722.044275313594</v>
+        <v>1393.231106668598</v>
       </c>
       <c r="X13" t="n">
-        <v>1494.054724415577</v>
+        <v>1393.231106668598</v>
       </c>
       <c r="Y13" t="n">
-        <v>1273.262145272047</v>
+        <v>1172.438527525068</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1363.124011696102</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1363.124011696102</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1004.858313089352</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1004.858313089352</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>593.8724082997444</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>178.7999581447409</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>108.5090151927147</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218343</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912092</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810559</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001389</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939508</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296686</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052369</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.605821609171</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>3119.628073993394</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>2866.09759726723</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>2866.09759726723</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>2513.328941997116</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>2139.863183736036</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
-        <v>1749.723851760224</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G15" t="n">
-        <v>176.021302392778</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218343</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228008</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031477</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158131</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1212.428070438129</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1685.951113992583</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2407.411984886741</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218343</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>111.634748879119</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>315.6219318279954</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>632.1817302764914</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>976.3387758760405</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1317.747152581905</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>1617.076751502319</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>1849.684251935978</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>1927.294548088493</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1134.908724368016</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.908724368016</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1134.908724368016</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.908724368016</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>92.81162322608053</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>372.3074987251939</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>841.937882512877</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1461.457663018653</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.46222495769</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874796</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3602.609239333934</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4150.915188021281</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4514.497374127288</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4605.913419421674</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4404.704271100993</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C18" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D18" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G18" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608053</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>240.4596049779265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>240.4596049779265</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L18" t="n">
-        <v>240.4596049779265</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>733.6583989593869</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1355.754362358723</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1902.630837358917</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2322.214355784993</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S18" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T18" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U18" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V18" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W18" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X18" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y18" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>964.7673076102598</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>795.8311246823529</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>645.7144852700171</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E19" t="n">
-        <v>497.801391687624</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>350.9114441897136</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>317.3152257880633</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.4425088264937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>171.7937461156344</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>819.1842911693323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1238.413883213791</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1653.109749005498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2428.375774410168</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2428.375774410168</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2428.375774410168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2139.299560724894</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1884.615072519008</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1595.197902482047</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1367.20835158403</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1146.415772440499</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.224468905844</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.261951965432</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1589.996253358682</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.208000760437</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.22209597083</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.2389888872365</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608053</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>372.3074987251935</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>841.9378825128753</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1461.45766301865</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2182.462224957687</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2919.747202874793</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3602.609239333932</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4150.91518802128</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4514.497374127288</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304026</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4605.913419421674</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4404.704271100993</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.260941820542</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.198054476972</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.429399206857</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3093.963640945778</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2703.824308969966</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>942.6241165038822</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>768.1710872227552</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>619.2366775615039</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>459.9992225560484</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
-        <v>313.4646645829333</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>177.6844143428629</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608053</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>240.4596049779265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>240.4596049779265</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>240.4596049779265</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>733.6583989593869</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1355.754362358723</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1902.630837358917</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2322.214355784993</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>2552.77562977024</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>2434.163925027597</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>2243.870218930011</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>2015.840717454381</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>1780.688609222638</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>1526.451252494437</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>1318.599752288904</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>1110.83945352395</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.385284034031</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>929.4491011061236</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>779.3324616937879</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>631.4193681113948</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>484.5294206134844</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>317.3152257880633</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>175.4425088264937</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608053</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>171.7937461156344</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>431.4224730861981</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>819.1842911693323</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1238.413883213791</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1653.109749005498</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2020.132206020528</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2310.662640856733</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2428.375774410168</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2360.516429368669</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.346239107599</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1957.667456821981</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1668.591243136708</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V22" t="n">
-        <v>1413.906754930821</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W22" t="n">
-        <v>1413.906754930821</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1413.906754930821</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.03374886427</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5983,25 +5983,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6010,7 +6010,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3118.73869457197</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C25" t="n">
-        <v>2949.802511644063</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D25" t="n">
-        <v>2799.685872231727</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.772778649334</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>2504.882831151423</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>2337.686731866303</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866303</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296627</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822166</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998106</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729141</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.430181389149</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098134</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671693</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4440.932614305896</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4221.331149328837</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>3932.255922673035</v>
+        <v>1712.457658285589</v>
       </c>
       <c r="V25" t="n">
-        <v>3677.571434467149</v>
+        <v>1457.773170079702</v>
       </c>
       <c r="W25" t="n">
-        <v>3388.154264430188</v>
+        <v>1168.356000042741</v>
       </c>
       <c r="X25" t="n">
-        <v>3160.164713532171</v>
+        <v>940.366449144724</v>
       </c>
       <c r="Y25" t="n">
-        <v>3118.73869457197</v>
+        <v>719.5738700011939</v>
       </c>
     </row>
     <row r="26">
@@ -6211,10 +6211,10 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263527</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356195</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2190.563011941682</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>1901.48778528588</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1646.803297079993</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1357.386127043032</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1129.396576145015</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>908.6039970014847</v>
       </c>
     </row>
     <row r="29">
@@ -6439,43 +6439,43 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6484,31 +6484,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6536,31 +6536,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>251.562654109227</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>746.8882603249857</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1344.266747951538</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C31" t="n">
-        <v>489.9894131830932</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D31" t="n">
-        <v>489.9894131830932</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>489.9894131830932</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6648,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2368.02429741636</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2148.422832439302</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1859.347605783499</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1604.663117577612</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1315.245947540652</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="32">
@@ -6691,22 +6691,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3047.140839595365</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="C34" t="n">
-        <v>2878.204656667458</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D34" t="n">
-        <v>2728.088017255123</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E34" t="n">
-        <v>2580.17492367273</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>2580.17492367273</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>2412.97882438761</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>2412.97882438761</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.9326143059</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328841</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.255922673039</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467152</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>3677.571434467152</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>3449.581883569135</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>3228.789304425605</v>
+        <v>1029.292738813773</v>
       </c>
     </row>
     <row r="35">
@@ -6931,25 +6931,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6958,13 +6958,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -7010,31 +7010,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>671.2000270096659</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1896.176478190825</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>983.3556038098237</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C37" t="n">
-        <v>814.4194208819168</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D37" t="n">
-        <v>664.3027814695811</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E37" t="n">
-        <v>516.389687887188</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F37" t="n">
-        <v>369.4997403892776</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7125,22 +7125,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2446.96308358026</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U37" t="n">
-        <v>2157.887856924458</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V37" t="n">
-        <v>1903.203368718571</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W37" t="n">
-        <v>1613.786198681611</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X37" t="n">
-        <v>1385.796647783593</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y37" t="n">
-        <v>1165.004068640063</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="38">
@@ -7156,7 +7156,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7213,10 +7213,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D40" t="n">
-        <v>194.8007783998286</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E40" t="n">
-        <v>175.9033664000583</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="41">
@@ -7393,37 +7393,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7432,7 +7432,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,25 +7484,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>365.9405071576781</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>219.0505596597677</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7663,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.62409208843394</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K3" t="n">
-        <v>89.39578891582772</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127267</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2.051220519418237</v>
       </c>
       <c r="K6" t="n">
-        <v>73.98015936652897</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>97.32166909127264</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8312,7 +8312,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878353</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.524048747151</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071636</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.569396338514764</v>
       </c>
       <c r="U11" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23326,7 +23326,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>28.23073750074207</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>25.49070894320695</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.29336059121923</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>66.41639999081852</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>181.0422364341347</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>83.32522828944164</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,13 +23497,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>225.0197308648146</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23554,7 +23554,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23652,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>144.5956654067403</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>50.29152613729121</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>41.54258064659096</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>132.2817966595331</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>50.29152613729121</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>226.0671788815078</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>86.05037734620936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>23.83108638657416</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>177.5728945814954</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>210.9709121168619</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992872</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,16 +24837,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>143.6212754172196</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>169.252134409505</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25077,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25086,16 +25086,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6.726664722473373</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>83.05123379926101</v>
       </c>
     </row>
     <row r="35">
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>32.89260457060007</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>250.2980548978887</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25557,16 +25557,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25788,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>41.54258064659092</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>125.5054897610406</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,13 +26079,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>6.257951202385186</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>918701.4381140305</v>
+        <v>917461.141157235</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>920504.6625415387</v>
+        <v>917461.141157235</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>922412.1342926222</v>
+        <v>922412.1342926223</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>759952.721176223</v>
+        <v>897369.3316079106</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759952.7211762228</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>892706.8522420314</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>892706.8522420313</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>897620.363099204</v>
+        <v>897620.3630992039</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>897620.3630992038</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>897620.3630992039</v>
+        <v>897620.363099204</v>
       </c>
     </row>
   </sheetData>
@@ -26313,40 +26313,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117841</v>
       </c>
       <c r="C2" t="n">
-        <v>533677.1504117845</v>
+        <v>533677.150411784</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.150411784</v>
       </c>
       <c r="E2" t="n">
-        <v>443296.2286621968</v>
+        <v>524496.9530081941</v>
       </c>
       <c r="F2" t="n">
-        <v>443296.228662197</v>
+        <v>524645.289798504</v>
       </c>
       <c r="G2" t="n">
-        <v>521741.8515647199</v>
+        <v>524645.289798504</v>
       </c>
       <c r="H2" t="n">
-        <v>521741.8515647199</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="I2" t="n">
-        <v>524645.2897985041</v>
+        <v>524645.289798504</v>
       </c>
       <c r="J2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="K2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985039</v>
       </c>
       <c r="L2" t="n">
         <v>524645.289798504</v>
       </c>
       <c r="M2" t="n">
-        <v>524645.289798504</v>
+        <v>524645.2897985037</v>
       </c>
       <c r="N2" t="n">
         <v>524645.2897985039</v>
@@ -26365,46 +26365,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>802750.9714393374</v>
+        <v>680087.9805911932</v>
       </c>
       <c r="C3" t="n">
-        <v>191586.8219478127</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>99404.18284596187</v>
+        <v>391128.3638059434</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171888</v>
+        <v>506886.0326267355</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>585.0966390475883</v>
       </c>
       <c r="G3" t="n">
-        <v>298675.7972242408</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>10818.91345744859</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>96556.46392121134</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
-        <v>44544.58287740562</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>24921.83922824936</v>
+        <v>95382.64613756971</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>132447.343606136</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>157.2049554772235</v>
       </c>
       <c r="O3" t="n">
-        <v>79112.53261822656</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218885.9312389196</v>
+        <v>250332.6659748621</v>
       </c>
       <c r="C4" t="n">
-        <v>167314.8936162625</v>
+        <v>250332.6659748621</v>
       </c>
       <c r="D4" t="n">
-        <v>139134.5471223411</v>
+        <v>139134.5471223413</v>
       </c>
       <c r="E4" t="n">
-        <v>10380.34706710378</v>
+        <v>10556.75453486818</v>
       </c>
       <c r="F4" t="n">
-        <v>10380.34706710378</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="G4" t="n">
-        <v>10550.55566555585</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="H4" t="n">
-        <v>10550.55566555585</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
         <v>10557.08828678121</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>71427.99433061594</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="C5" t="n">
-        <v>85199.08185587233</v>
+        <v>63047.80320426621</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984476</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>74306.34056139331</v>
+        <v>101072.4410767593</v>
       </c>
       <c r="F5" t="n">
-        <v>74306.3405613933</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
-        <v>100142.1285138384</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559387.7465970886</v>
+        <v>-459791.2993585375</v>
       </c>
       <c r="C6" t="n">
-        <v>89576.35299183693</v>
+        <v>220296.6812326556</v>
       </c>
       <c r="D6" t="n">
-        <v>202200.6480036366</v>
+        <v>-89523.53295634544</v>
       </c>
       <c r="E6" t="n">
-        <v>176536.5612165109</v>
+        <v>-94371.35974569156</v>
       </c>
       <c r="F6" t="n">
-        <v>358609.5410336999</v>
+        <v>412033.1957944111</v>
       </c>
       <c r="G6" t="n">
-        <v>112373.3701610848</v>
+        <v>412618.2924334587</v>
       </c>
       <c r="H6" t="n">
-        <v>411049.1673853257</v>
+        <v>412618.2924334586</v>
       </c>
       <c r="I6" t="n">
-        <v>402146.7582303672</v>
+        <v>412618.2924334587</v>
       </c>
       <c r="J6" t="n">
-        <v>316409.2077666043</v>
+        <v>343619.1380143446</v>
       </c>
       <c r="K6" t="n">
-        <v>368421.08881041</v>
+        <v>412618.2924334586</v>
       </c>
       <c r="L6" t="n">
-        <v>388043.8324595662</v>
+        <v>317235.646295889</v>
       </c>
       <c r="M6" t="n">
-        <v>365413.4058944008</v>
+        <v>280170.9488273224</v>
       </c>
       <c r="N6" t="n">
-        <v>412965.6716878155</v>
+        <v>412461.0874779813</v>
       </c>
       <c r="O6" t="n">
-        <v>333853.139069589</v>
+        <v>412618.2924334586</v>
       </c>
       <c r="P6" t="n">
-        <v>412965.6716878156</v>
+        <v>412618.2924334587</v>
       </c>
     </row>
   </sheetData>
@@ -26737,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>704.7206674111782</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>853.7106645376851</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175416</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.467948760091</v>
       </c>
       <c r="F3" t="n">
-        <v>1089.776700593298</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="I3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.0375621883596</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>542.1149567261643</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022931</v>
+        <v>1172.066443976799</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022929</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326006</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>704.7206674111782</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>148.989997126507</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>80.35422757985646</v>
+        <v>320.0098783480609</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757567</v>
+        <v>433.4030566425521</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.5075515815824474</v>
       </c>
       <c r="G3" t="n">
-        <v>268.2643481230873</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,46 +27011,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>369.0375621883596</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="C4" t="n">
-        <v>173.0773945378048</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>98.46987537387463</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="E4" t="n">
-        <v>190.8166233022542</v>
+        <v>531.4816118767598</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.6418441228497613</v>
       </c>
       <c r="G4" t="n">
-        <v>328.7438349237136</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.56299777364165</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>369.0375621883603</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>173.0773945378043</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387486</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>531.4816118767598</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.6418441228497613</v>
       </c>
       <c r="O4" t="n">
-        <v>328.7438349237134</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,22 +27257,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>369.0375621883596</v>
+        <v>263.7138800015063</v>
       </c>
       <c r="K4" t="n">
-        <v>173.0773945378048</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>98.46987537387463</v>
+        <v>376.8709520985326</v>
       </c>
       <c r="M4" t="n">
-        <v>190.8166233022542</v>
+        <v>531.4816118767598</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.6418441228497613</v>
       </c>
       <c r="O4" t="n">
-        <v>328.7438349237136</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>303.4023572948694</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695013</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27390,16 +27390,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>37.83848355335186</v>
+        <v>386.8865758396081</v>
       </c>
       <c r="G2" t="n">
-        <v>43.43212741758482</v>
+        <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>310.4608502157682</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,13 +27429,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>210.6941823416492</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1190090751012</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27444,10 +27444,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.20037646769401</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>122.3592427607148</v>
       </c>
       <c r="G3" t="n">
-        <v>135.8277028974583</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,19 +27508,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>168.0621235750868</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27536,28 +27536,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.7201715975534</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9285362332079</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>117.2338197174849</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>243.9115167196693</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>78.07391927551529</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.0199616619743</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>142.1140765027778</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>143.5157857918228</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>304.326804756183</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
-        <v>78.16360657708285</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
-        <v>208.0722578696038</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>106.0172206769628</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>122.5240586545473</v>
       </c>
     </row>
     <row r="6">
@@ -27697,10 +27697,10 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>20.58750245861322</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,22 +27745,22 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8205739680685</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778207</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.71918696526319</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.4515011109318</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H7" t="n">
-        <v>148.5398113612452</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>108.0728512656385</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>197.1876907596158</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>218.1629549655372</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>125.6104014511861</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624053</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>6.224405299532108</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802337</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H10" t="n">
-        <v>107.402040645718</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039004</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29246,7 +29246,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>-7.333857380491618e-13</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -29514,7 +29514,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29681,7 +29681,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.044307409159484e-12</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.833047909190664</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>29.01395189999889</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>109.2210795190732</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>240.4513999826713</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>360.3743179787122</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>447.0762079296061</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>497.4584236846755</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>505.5078210566635</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>477.3367009096488</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>407.3958306515042</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>305.9373024036135</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>177.9614457256982</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>64.55807923068232</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>12.40166722248214</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.2266438327352531</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.515814265752345</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>14.63957461923976</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>52.18921923752594</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>143.211206572681</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>244.7707623780882</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>329.1244966055696</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>384.0727637390921</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>394.2380269510892</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>360.6507740099451</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>289.4540416768668</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>193.4923613616503</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>94.11345064030795</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>28.15558515553149</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>6.10979522029125</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.09972462274686487</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.270807760905403</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>11.29863627423168</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>38.21665520977341</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>89.846108696012</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>147.644756221555</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>188.9344556531542</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>199.2048929208351</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>194.468245812006</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>179.6229006050656</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>153.6984222825952</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>106.4128207790879</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>57.14013804943747</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>22.14671343323324</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>5.429814978413994</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06931678695847661</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.432002671508279</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H5" t="n">
-        <v>35.14799735958417</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>132.3122829933231</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J5" t="n">
-        <v>291.2869367409261</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>436.5636098258717</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L5" t="n">
-        <v>541.5957615840433</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>602.6296390934787</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N5" t="n">
-        <v>612.3808166839016</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O5" t="n">
-        <v>578.253840119091</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P5" t="n">
-        <v>493.5262741662303</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.61767849284</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R5" t="n">
-        <v>215.5855378141322</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>78.20676087699499</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T5" t="n">
-        <v>15.0235916945275</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2745602137206623</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.836283316175398</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H6" t="n">
-        <v>17.73463097464135</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>63.22291242095122</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J6" t="n">
-        <v>173.4885040076064</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K6" t="n">
-        <v>296.5194861913581</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>398.7070419616803</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M6" t="n">
-        <v>465.2723121730384</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N6" t="n">
-        <v>477.5866858152849</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>436.898513388451</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P6" t="n">
-        <v>350.6495746475636</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q6" t="n">
-        <v>234.3999545349509</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>114.0106430867498</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S6" t="n">
-        <v>34.10815721053863</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>7.401510384057852</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1208081129062763</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.539478247526973</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>13.68736114619437</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I7" t="n">
-        <v>46.29630948017481</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>108.841112100157</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K7" t="n">
-        <v>178.8593818490428</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L7" t="n">
-        <v>228.8784296368738</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M7" t="n">
-        <v>241.3202129282508</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N7" t="n">
-        <v>235.5821576420142</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>217.5982526595399</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P7" t="n">
-        <v>186.1928964099895</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>128.9103103451905</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R7" t="n">
-        <v>69.22054011153097</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S7" t="n">
-        <v>26.82890727735642</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T7" t="n">
-        <v>6.577770693978883</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U7" t="n">
-        <v>0.08397154077419863</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181069</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336188</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979358</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491908</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857155</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767395</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730021</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342241</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166611</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190659</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147062</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235318</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745119</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389764</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744855</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347165</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380026</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436511</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.8178475575846</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178446</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177255</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040601</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762085</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405686</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378635</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168767</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624144</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997911</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000194</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675767</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.684379313654583</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.97566335231076</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335784</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.085617475379</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682324</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.4212663227914</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849634</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067965</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154679</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.7180217169142</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>141.0437987097488</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759605</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523486</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19689343106958</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529025009</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.381011861681598</v>
+        <v>5.497358587980262</v>
       </c>
       <c r="H11" t="n">
-        <v>44.86703772844668</v>
+        <v>56.29982363915288</v>
       </c>
       <c r="I11" t="n">
-        <v>168.89895979748</v>
+        <v>211.9369169631093</v>
       </c>
       <c r="J11" t="n">
-        <v>371.8329054953988</v>
+        <v>466.5814384565902</v>
       </c>
       <c r="K11" t="n">
-        <v>557.281137600381</v>
+        <v>699.2846274857949</v>
       </c>
       <c r="L11" t="n">
-        <v>691.3565293623194</v>
+        <v>867.524415372696</v>
       </c>
       <c r="M11" t="n">
-        <v>769.2673490574995</v>
+        <v>965.2880661616899</v>
       </c>
       <c r="N11" t="n">
-        <v>781.7148990095023</v>
+        <v>980.9074362497889</v>
       </c>
       <c r="O11" t="n">
-        <v>738.1512123099059</v>
+        <v>926.2430767905602</v>
       </c>
       <c r="P11" t="n">
-        <v>629.9949819746414</v>
+        <v>790.5270366497973</v>
       </c>
       <c r="Q11" t="n">
-        <v>473.099994678169</v>
+        <v>593.6528822177539</v>
       </c>
       <c r="R11" t="n">
-        <v>275.1987363563569</v>
+        <v>345.3234514022155</v>
       </c>
       <c r="S11" t="n">
-        <v>99.83230779806951</v>
+        <v>125.2710588236004</v>
       </c>
       <c r="T11" t="n">
-        <v>19.1778794245112</v>
+        <v>24.06468721888361</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4397886870384209</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.344047997502566</v>
+        <v>2.9413461539368</v>
       </c>
       <c r="H12" t="n">
-        <v>22.63856881798531</v>
+        <v>28.40721153933699</v>
       </c>
       <c r="I12" t="n">
-        <v>80.70516131752258</v>
+        <v>101.270032054403</v>
       </c>
       <c r="J12" t="n">
-        <v>221.4611312026438</v>
+        <v>277.8927083418974</v>
       </c>
       <c r="K12" t="n">
-        <v>378.5123470353157</v>
+        <v>474.9629006556631</v>
       </c>
       <c r="L12" t="n">
-        <v>508.9565619138796</v>
+        <v>638.6462339940408</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233475</v>
+        <v>445.3623591727028</v>
       </c>
       <c r="N12" t="n">
-        <v>609.6478166837925</v>
+        <v>764.9951122030628</v>
       </c>
       <c r="O12" t="n">
-        <v>557.708647897025</v>
+        <v>699.8210737395158</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>43.53966346238316</v>
+        <v>54.63421474527343</v>
       </c>
       <c r="T12" t="n">
-        <v>9.448158375898497</v>
+        <v>11.85568910292947</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.193509615390579</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.965171099430538</v>
+        <v>2.465925809239509</v>
       </c>
       <c r="H13" t="n">
-        <v>17.47215759311879</v>
+        <v>21.92432219487492</v>
       </c>
       <c r="I13" t="n">
-        <v>59.09805451742019</v>
+        <v>74.15711433603906</v>
       </c>
       <c r="J13" t="n">
-        <v>138.937596729739</v>
+        <v>174.3409547132333</v>
       </c>
       <c r="K13" t="n">
-        <v>228.3171513702024</v>
+        <v>286.4957440189174</v>
       </c>
       <c r="L13" t="n">
-        <v>292.167346909882</v>
+        <v>366.6159153118448</v>
       </c>
       <c r="M13" t="n">
-        <v>308.0495024316432</v>
+        <v>386.5450793519713</v>
       </c>
       <c r="N13" t="n">
-        <v>300.7247737883115</v>
+        <v>377.3539013357152</v>
       </c>
       <c r="O13" t="n">
-        <v>277.7680023086001</v>
+        <v>348.5474043823263</v>
       </c>
       <c r="P13" t="n">
-        <v>237.6785118802169</v>
+        <v>298.2425178738401</v>
       </c>
       <c r="Q13" t="n">
-        <v>164.556281789588</v>
+        <v>206.4876602627738</v>
       </c>
       <c r="R13" t="n">
-        <v>88.36123870712215</v>
+        <v>110.876991386351</v>
       </c>
       <c r="S13" t="n">
-        <v>34.24757270553036</v>
+        <v>42.9743616028376</v>
       </c>
       <c r="T13" t="n">
-        <v>8.396640152112296</v>
+        <v>10.53622845765972</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.134505044140337</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953988</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>19.1778794245112</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502566</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>22.63856881798531</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.5365940905541</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>17.47215759311879</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>138.937596729739</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702024</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316432</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802169</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>164.556281789588</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>640.3146339032915</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426204</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>640.3146339032915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32785,31 +32785,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33031,7 +33031,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,13 +33259,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>146.0225991093089</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
@@ -33274,16 +33274,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33496,13 +33496,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33733,16 +33733,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>570.6116741576916</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
@@ -33751,13 +33751,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33970,13 +33970,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34222,10 +34222,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,7 +34444,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34456,13 +34456,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>446.0127311990643</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>59.40549545598503</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>140.2844669337317</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>211.3097929596188</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>267.1121904574028</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>276.0947574600726</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>247.2384894879621</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>176.1628348962347</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>83.63161252916402</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>142.4646152464232</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>196.3251123195569</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>190.5701168256954</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>241.9387298170737</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>262.8963148677559</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>218.0545295655007</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>155.4796342625365</v>
+        <v>215.5616691250137</v>
       </c>
       <c r="Q3" t="n">
-        <v>53.51058727562878</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3752643956721</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>216.5244809134704</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>238.7887698826757</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>238.6004181912346</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>204.2080285191053</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9769815474887</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.25077752739351</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>110.2410322142398</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K5" t="n">
-        <v>216.4737587808911</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L5" t="n">
-        <v>305.8293466140561</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M5" t="n">
-        <v>372.283405866206</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N5" t="n">
-        <v>382.9677530873107</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O5" t="n">
-        <v>348.1556286974043</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P5" t="n">
-        <v>262.2932784109608</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q5" t="n">
-        <v>148.3119886183905</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>46.6508773409397</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>232.658206583528</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L6" t="n">
-        <v>260.1526621818061</v>
+        <v>245.5483596572289</v>
       </c>
       <c r="M6" t="n">
-        <v>323.13827825102</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N6" t="n">
-        <v>346.2449737319515</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O6" t="n">
-        <v>294.3022689440066</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>535.1379358731706</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>94.41818044892935</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
-        <v>13.85280893410663</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.48193198348422</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>156.58989002316</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L7" t="n">
-        <v>256.46845489719</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M7" t="n">
-        <v>280.9040898900914</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N7" t="n">
-        <v>279.7143300212427</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O7" t="n">
-        <v>242.1833805735795</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P7" t="n">
-        <v>183.4714556748829</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>42.74826709349607</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225045</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.564649540735</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067523</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457294</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376332</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949743</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637963</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402567</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939967</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091791</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434856</v>
+        <v>379.9148430313201</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378513</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>622.4553810291928</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000389</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.4246819961242</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235333</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308552</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977125</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870624</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423496</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831075</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468039</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860251</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295076</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9965809818077</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.8817554580544</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.461027392703357</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>285.5355339299039</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>479.1947764408143</v>
       </c>
       <c r="L11" t="n">
-        <v>455.5901143923322</v>
+        <v>631.7580004027088</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>734.9418329344172</v>
       </c>
       <c r="N11" t="n">
-        <v>552.3018354129115</v>
+        <v>751.4943726531981</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>696.1448653688734</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>559.2940408945278</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>371.3471923433044</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>129.7379135880834</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.747652054403005</v>
       </c>
       <c r="J12" t="n">
-        <v>94.6235045359771</v>
+        <v>151.0550816752308</v>
       </c>
       <c r="K12" t="n">
-        <v>240.6709080609567</v>
+        <v>337.1214616813041</v>
       </c>
       <c r="L12" t="n">
-        <v>370.4021821340054</v>
+        <v>500.0918542141666</v>
       </c>
       <c r="M12" t="n">
-        <v>451.7942679013292</v>
+        <v>303.2283252506845</v>
       </c>
       <c r="N12" t="n">
-        <v>478.3061046004592</v>
+        <v>633.6534001197296</v>
       </c>
       <c r="O12" t="n">
-        <v>415.1124034525806</v>
+        <v>557.2248292950713</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.57841661306622</v>
+        <v>80.98177459656048</v>
       </c>
       <c r="K13" t="n">
-        <v>206.0476595443196</v>
+        <v>264.2262521930345</v>
       </c>
       <c r="L13" t="n">
-        <v>319.7573721701981</v>
+        <v>394.205940572161</v>
       </c>
       <c r="M13" t="n">
-        <v>347.6333793934838</v>
+        <v>426.1289563138119</v>
       </c>
       <c r="N13" t="n">
-        <v>344.8569461675401</v>
+        <v>421.4860737149438</v>
       </c>
       <c r="O13" t="n">
-        <v>302.3531302226398</v>
+        <v>373.132532296366</v>
       </c>
       <c r="P13" t="n">
-        <v>234.9570711451104</v>
+        <v>295.5210771387336</v>
       </c>
       <c r="Q13" t="n">
-        <v>78.39423853789366</v>
+        <v>120.3256170110794</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>319.7573721701981</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>347.6333793934838</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>344.8569461675401</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>234.9570711451104</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>498.1805999812732</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>552.400479798176</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>498.1805999812732</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,7 +36679,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,13 +36907,13 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>8.181160134949948</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
@@ -36922,16 +36922,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>432.0572943778175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
@@ -37399,13 +37399,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37870,10 +37870,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38104,13 +38104,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>303.8786972770459</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
